--- a/maps/crazzzy-map-challenge/maps.xlsx
+++ b/maps/crazzzy-map-challenge/maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianVerkin\Privat\KaroToolsCollection\maps\crazzzy-map-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FEDC3-183A-4EFC-B77E-FE81DF6CF9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEAC146-A346-4F57-9244-4B8F521923AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="-15" windowWidth="27255" windowHeight="21015" xr2:uid="{8BA8FD59-5DF7-4DB8-A59E-E6420BE644E0}"/>
+    <workbookView minimized="1" xWindow="12165" yWindow="0" windowWidth="27255" windowHeight="20985" xr2:uid="{8BA8FD59-5DF7-4DB8-A59E-E6420BE644E0}"/>
   </bookViews>
   <sheets>
     <sheet name="calc" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28014" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28020" uniqueCount="30">
   <si>
     <t>XXXXXX</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t># Züge</t>
+  </si>
+  <si>
+    <t>Zeichen</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>rechts</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>oben</t>
+  </si>
+  <si>
+    <t>unten</t>
   </si>
 </sst>
 </file>
@@ -503,2292 +521,2784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C64C95-F847-43AA-BCC8-79EA544C5163}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D1" s="4">
         <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
       </c>
       <c r="E1" s="3">
         <v>2</v>
       </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <f>C2*C3</f>
-        <v>196</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4">
         <f>D2*D3</f>
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <f>E2*E3</f>
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f>F2*F3</f>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f>G2*G3</f>
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <f>H2*H3</f>
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3"/>
+      <c r="D5">
         <v>84</v>
       </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <f>C5/C4</f>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2">
+        <f>D5/D4</f>
         <v>0.42857142857142855</v>
-      </c>
-      <c r="D6">
-        <f>D5/D4</f>
-        <v>0.5</v>
       </c>
       <c r="E6">
         <f>E5/E4</f>
         <v>0.5</v>
       </c>
+      <c r="F6">
+        <f>F5/F4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <f>G5/G4</f>
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <f>H5/H4</f>
+        <v>0.46666666666666667</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>325</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11" si="0">ROUNDDOWN(65536/(A11+1),0)</f>
-        <v>201</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:E11" si="1">ROUNDDOWN(($A11-1)/C$2,0)*ROUNDDOWN(($B11-1)/C$3,0)*C$5</f>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15" si="0">ROUNDDOWN(65536/(A15+1),0)</f>
+        <v>229</v>
+      </c>
+      <c r="C15">
+        <f>(A15+1)*B15-1</f>
+        <v>65493</v>
+      </c>
+      <c r="D15">
+        <f>ROUNDDOWN(($A15-D$8-D$9)/D$2,0)*ROUNDDOWN(($B15-D$10-D$11)/D$3,0)*D$5</f>
+        <v>26880</v>
+      </c>
+      <c r="E15">
+        <f>ROUNDDOWN(($A15-E$8-E$9)/E$2,0)*ROUNDDOWN(($B15-E$10-E$11)/E$3,0)*E$5</f>
+        <v>32148</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="E15:F30" si="1">ROUNDDOWN(($A15-F$8-F$9)/F$2,0)*ROUNDDOWN(($B15-F$10-F$11)/F$3,0)*F$5</f>
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B20" si="2">ROUNDDOWN(65536/(A17+1),0)</f>
+        <v>648</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C79" si="3">(A17+1)*B17-1</f>
+        <v>65447</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:F47" si="4">ROUNDDOWN(($A17-D$8-D$9)/D$2,0)*ROUNDDOWN(($B17-D$10-D$11)/D$3,0)*D$5</f>
         <v>27048</v>
       </c>
-      <c r="D11">
+      <c r="E17">
         <f t="shared" si="1"/>
-        <v>32400</v>
-      </c>
-      <c r="E11">
+        <v>30912</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
-        <v>32076</v>
+        <v>30960</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ref="B13:B16" si="2">ROUNDDOWN(65536/(A13+1),0)</f>
-        <v>648</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:E16" si="3">ROUNDDOWN(($A13-1)/C$2,0)*ROUNDDOWN(($B13-1)/C$3,0)*C$5</f>
-        <v>27048</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>30912</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>30816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>105</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <f t="shared" si="2"/>
         <v>618</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <f t="shared" si="3"/>
+        <v>65507</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
         <v>25872</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
+      <c r="E18">
+        <f t="shared" si="1"/>
         <v>31416</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>31824</v>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>31980</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>110</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <f t="shared" si="2"/>
         <v>590</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <f t="shared" si="3"/>
+        <v>65489</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
         <v>24696</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>31752</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>31752</v>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>30870</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>31590</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>115</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <f t="shared" si="2"/>
         <v>564</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <f t="shared" si="3"/>
+        <v>65423</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
         <v>26880</v>
       </c>
-      <c r="D16">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>31080</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>31416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <f>ROUNDDOWN(65536/(A21+1),0)</f>
+        <v>541</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="3"/>
-        <v>31920</v>
-      </c>
-      <c r="E16">
+        <v>65460</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>25536</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>31590</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>31146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B85" si="5">ROUNDDOWN(65536/(A22+1),0)</f>
+        <v>520</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="3"/>
+        <v>65519</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>24864</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>30960</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>31992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>65499</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>26460</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>31248</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>31680</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>120</v>
-      </c>
-      <c r="B17">
-        <f>ROUNDDOWN(65536/(A17+1),0)</f>
-        <v>541</v>
-      </c>
-      <c r="C17">
-        <f>ROUNDDOWN(($A17-1)/C$2,0)*ROUNDDOWN(($B17-1)/C$3,0)*C$5</f>
-        <v>25536</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:E32" si="4">ROUNDDOWN(($A17-1)/D$2,0)*ROUNDDOWN(($B17-1)/D$3,0)*D$5</f>
-        <v>30780</v>
-      </c>
-      <c r="E17">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>135</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>481</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>65415</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>25704</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>31680</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>31482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>464</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>65423</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>27720</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>31050</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>31212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>145</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>448</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>65407</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>26880</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>31302</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>31968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="5"/>
+        <v>434</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>65533</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>26040</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>31752</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>31746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>65519</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>27720</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>31200</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>31692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>160</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="5"/>
+        <v>407</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>65526</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>26796</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>31512</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>31356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>165</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="5"/>
+        <v>394</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>65403</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>25872</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>31752</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>31980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>170</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>65492</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>27216</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>31350</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>31752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>65471</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>26208</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>31464</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>31734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>180</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>65521</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>25200</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>31860</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>31416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>185</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>65471</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>27300</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="4"/>
         <v>31320</v>
       </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>32016</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>125</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B81" si="5">ROUNDDOWN(65536/(A18+1),0)</f>
-        <v>520</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:E58" si="6">ROUNDDOWN(($A18-1)/C$2,0)*ROUNDDOWN(($B18-1)/C$3,0)*C$5</f>
-        <v>24864</v>
-      </c>
-      <c r="D18">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>65512</v>
+      </c>
+      <c r="D35">
         <f t="shared" si="4"/>
-        <v>30960</v>
-      </c>
-      <c r="E18">
+        <v>26208</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>31620</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>31866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>195</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>65463</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>25116</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>31872</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>31680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>65525</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>27048</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>31590</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>31458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>205</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>65507</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>25872</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>31758</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>32130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>210</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>65409</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>27720</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>31878</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>31824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>215</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>65447</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>26460</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>31500</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>220</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>65415</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>26460</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>31536</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>31428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>225</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="5"/>
+        <v>289</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>65313</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>26880</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>31968</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>31920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>230</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="5"/>
+        <v>283</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>65372</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>26880</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>31500</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>31806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>235</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>65371</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>25536</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>31878</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>31668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>240</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>65310</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>27132</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>31758</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>31506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>245</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="5"/>
+        <v>266</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="3"/>
+        <v>65435</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>27132</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>31680</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>31842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="5"/>
+        <v>261</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="3"/>
+        <v>65510</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>25704</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>31980</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="4"/>
         <v>31992</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>130</v>
-      </c>
-      <c r="B19">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>255</v>
+      </c>
+      <c r="B48">
         <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="C19">
+        <v>256</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="3"/>
+        <v>65535</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:F79" si="6">ROUNDDOWN(($A48-D$8-D$9)/D$2,0)*ROUNDDOWN(($B48-D$10-D$11)/D$3,0)*D$5</f>
+        <v>27216</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>31752</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>31752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>260</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="3"/>
+        <v>65510</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>25704</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>31620</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>31488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>265</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="3"/>
+        <v>65435</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>25704</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>31842</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>32076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>270</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="3"/>
+        <v>65310</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>27132</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>32040</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>31758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>275</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>65411</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>25536</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>31860</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>31824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>280</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="3"/>
+        <v>65472</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="6"/>
+        <v>26880</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>32016</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>31464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>285</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>229</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="3"/>
+        <v>65493</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="6"/>
+        <v>26880</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>32148</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>290</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="3"/>
+        <v>65474</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="6"/>
+        <v>26880</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>31920</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>31968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>295</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="3"/>
+        <v>65415</v>
+      </c>
+      <c r="D56">
         <f t="shared" si="6"/>
         <v>26460</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="4"/>
-        <v>31248</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>32010</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>31536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>300</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>217</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="3"/>
+        <v>65316</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="6"/>
+        <v>26460</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="6"/>
+        <v>32076</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>31524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>305</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>214</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="3"/>
+        <v>65483</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>26460</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="6"/>
+        <v>31800</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>31920</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>310</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="3"/>
+        <v>65309</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="6"/>
+        <v>27720</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>31824</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>31878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>315</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="3"/>
+        <v>65411</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>25872</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>31824</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>31824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>320</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="3"/>
+        <v>65483</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>25872</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>31500</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>31758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>325</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="5"/>
+        <v>201</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="3"/>
+        <v>65525</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>27048</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>32100</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>32076</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>330</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="3"/>
+        <v>65206</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>27048</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>32046</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>31488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>335</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="5"/>
+        <v>195</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="3"/>
+        <v>65519</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>25116</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>31680</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
         <v>31872</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>135</v>
-      </c>
-      <c r="B20">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>340</v>
+      </c>
+      <c r="B65">
         <f t="shared" si="5"/>
-        <v>481</v>
-      </c>
-      <c r="C20">
+        <v>192</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="3"/>
+        <v>65471</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="6"/>
-        <v>25704</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="4"/>
+        <v>26208</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>31584</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>31752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>345</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="5"/>
+        <v>189</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="3"/>
+        <v>65393</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>26208</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>32148</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>31992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>350</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>65285</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="6"/>
+        <v>27300</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>31740</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="6"/>
+        <v>31842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>355</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>184</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>65503</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>27300</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>31590</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
         <v>31680</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>360</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>181</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>65340</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>25200</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>32130</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>31506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>365</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>65513</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>26208</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
         <v>31680</v>
       </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>31668</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>140</v>
-      </c>
-      <c r="B21">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>370</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="5"/>
-        <v>464</v>
-      </c>
-      <c r="C21">
+        <v>176</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>65295</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>26208</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>31476</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>31464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>375</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>65423</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>26208</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>31992</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>31806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>380</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>65531</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>27216</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>31500</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="6"/>
+        <v>31584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>385</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>65233</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>27216</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>32004</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="6"/>
+        <v>31680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>390</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>65296</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="6"/>
         <v>24948</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="4"/>
-        <v>31740</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>31416</v>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>31734</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="6"/>
+        <v>31428</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>145</v>
-      </c>
-      <c r="B22">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>395</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="5"/>
-        <v>448</v>
-      </c>
-      <c r="C22">
+        <v>165</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>65339</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="6"/>
-        <v>26040</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="4"/>
-        <v>31968</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>31968</v>
+        <v>25872</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>31980</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="6"/>
+        <v>31752</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>150</v>
-      </c>
-      <c r="B23">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>400</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="5"/>
-        <v>434</v>
-      </c>
-      <c r="C23">
+        <v>163</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>65362</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="6"/>
-        <v>25200</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="4"/>
-        <v>31104</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>31968</v>
+        <v>25872</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>31680</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="6"/>
+        <v>31482</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>155</v>
-      </c>
-      <c r="B24">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>405</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="5"/>
-        <v>420</v>
-      </c>
-      <c r="C24">
+        <v>161</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>65365</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>25872</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>32160</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>31512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>410</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>65348</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="6"/>
         <v>26796</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="4"/>
-        <v>31200</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>31464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>160</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="5"/>
-        <v>407</v>
-      </c>
-      <c r="C25">
+      <c r="E79">
         <f t="shared" si="6"/>
-        <v>26796</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="4"/>
-        <v>31512</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>31356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>165</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="5"/>
-        <v>394</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="4"/>
-        <v>31752</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>31980</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>170</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="5"/>
-        <v>383</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="6"/>
-        <v>27216</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="4"/>
-        <v>31920</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="4"/>
-        <v>31752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>175</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="5"/>
-        <v>372</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="6"/>
-        <v>26208</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="4"/>
-        <v>32016</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="4"/>
-        <v>31476</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>180</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="5"/>
-        <v>362</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="6"/>
-        <v>25200</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="4"/>
-        <v>31320</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="4"/>
-        <v>31680</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>185</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="5"/>
-        <v>352</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="6"/>
-        <v>27300</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="4"/>
-        <v>31320</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="4"/>
-        <v>32016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>190</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="5"/>
-        <v>343</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="6"/>
-        <v>26208</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="4"/>
-        <v>31620</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>32148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>195</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="5"/>
-        <v>334</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="6"/>
-        <v>25116</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
-        <v>31872</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>31680</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>200</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="5"/>
-        <v>326</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="6"/>
-        <v>27048</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>32076</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>31752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>205</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="5"/>
-        <v>318</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>32232</v>
-      </c>
-      <c r="E34">
+        <v>31590</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="6"/>
         <v>31824</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>210</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="5"/>
-        <v>310</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
-        <v>31416</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="6"/>
-        <v>31824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>215</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="5"/>
-        <v>303</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="6"/>
-        <v>26460</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="6"/>
-        <v>31500</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="6"/>
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>220</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="5"/>
-        <v>296</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="6"/>
-        <v>26460</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="6"/>
-        <v>31536</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="6"/>
-        <v>31752</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>225</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="5"/>
-        <v>289</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="6"/>
-        <v>26880</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="6"/>
-        <v>31968</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
-        <v>32256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>230</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="5"/>
-        <v>283</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="6"/>
-        <v>26880</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="6"/>
-        <v>31920</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="6"/>
-        <v>32148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>235</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="5"/>
-        <v>277</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="6"/>
-        <v>25536</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="6"/>
-        <v>32292</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="6"/>
-        <v>32016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>240</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="5"/>
-        <v>271</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="6"/>
-        <v>27132</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="6"/>
-        <v>31356</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="6"/>
-        <v>31860</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>245</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="5"/>
-        <v>266</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="6"/>
-        <v>25704</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="6"/>
-        <v>31680</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="6"/>
-        <v>32208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>250</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="5"/>
-        <v>261</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="6"/>
-        <v>25704</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="6"/>
-        <v>31980</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="6"/>
-        <v>31992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>255</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="5"/>
-        <v>256</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="6"/>
-        <v>27216</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="6"/>
-        <v>31752</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="6"/>
-        <v>31752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>260</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="5"/>
-        <v>251</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="6"/>
-        <v>25704</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="6"/>
-        <v>31992</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="6"/>
-        <v>31488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>265</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="5"/>
-        <v>246</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="6"/>
-        <v>25704</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="6"/>
-        <v>32208</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="6"/>
-        <v>31680</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>270</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="5"/>
-        <v>241</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="6"/>
-        <v>27132</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="6"/>
-        <v>31680</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="6"/>
-        <v>32160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>275</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="5"/>
-        <v>237</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="6"/>
-        <v>25536</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="6"/>
-        <v>31860</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="6"/>
-        <v>31824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>280</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="5"/>
-        <v>233</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="6"/>
-        <v>25536</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="6"/>
-        <v>32016</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="6"/>
-        <v>31464</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>285</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="6"/>
-        <v>26880</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="6"/>
-        <v>32148</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="6"/>
-        <v>32376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>290</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="6"/>
-        <v>26880</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="6"/>
-        <v>32256</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="6"/>
-        <v>31968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>295</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="5"/>
-        <v>221</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="6"/>
-        <v>26460</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="6"/>
-        <v>32340</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="6"/>
-        <v>31536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>300</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="5"/>
-        <v>217</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="6"/>
-        <v>26460</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="6"/>
-        <v>31752</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="6"/>
-        <v>31968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>305</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="5"/>
-        <v>214</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="6"/>
-        <v>26460</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="6"/>
-        <v>31800</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="6"/>
-        <v>31920</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>310</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="6"/>
-        <v>31824</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="6"/>
-        <v>31416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>315</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="5"/>
-        <v>207</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="6"/>
-        <v>31824</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="6"/>
-        <v>31824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>320</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="6"/>
-        <v>25872</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="6"/>
-        <v>31800</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="6"/>
-        <v>31284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>325</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="5"/>
-        <v>201</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="6"/>
-        <v>27048</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="6"/>
-        <v>32400</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="6"/>
-        <v>32076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>330</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="5"/>
-        <v>197</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ref="C59:E113" si="7">ROUNDDOWN(($A59-1)/C$2,0)*ROUNDDOWN(($B59-1)/C$3,0)*C$5</f>
-        <v>27048</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="7"/>
-        <v>31752</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="7"/>
-        <v>31488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>335</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="7"/>
-        <v>25116</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="7"/>
-        <v>31680</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="7"/>
-        <v>31872</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>340</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="5"/>
-        <v>192</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="7"/>
-        <v>31584</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="7"/>
-        <v>31248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>345</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="5"/>
-        <v>189</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="7"/>
-        <v>32148</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="7"/>
-        <v>31992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>350</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="7"/>
-        <v>32016</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="7"/>
-        <v>31320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>355</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="5"/>
-        <v>184</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="7"/>
-        <v>27300</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="7"/>
-        <v>31860</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="7"/>
-        <v>31680</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>360</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="5"/>
-        <v>181</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="7"/>
-        <v>25200</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="7"/>
-        <v>31860</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="7"/>
-        <v>32040</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>365</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="5"/>
-        <v>179</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="7"/>
-        <v>31680</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="7"/>
-        <v>31668</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>370</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="5"/>
-        <v>176</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="7"/>
-        <v>31476</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="7"/>
-        <v>32016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>375</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="5"/>
-        <v>174</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="7"/>
-        <v>26208</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="7"/>
-        <v>31992</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="7"/>
-        <v>31248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>380</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="5"/>
-        <v>172</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="7"/>
-        <v>27216</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="7"/>
-        <v>31752</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="7"/>
-        <v>31584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>385</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="7"/>
-        <v>27216</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="7"/>
-        <v>32256</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="7"/>
-        <v>32256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>390</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="5"/>
-        <v>167</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="7"/>
-        <v>24948</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="7"/>
-        <v>31488</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="7"/>
-        <v>31428</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>395</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="5"/>
-        <v>165</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="7"/>
-        <v>25872</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="7"/>
-        <v>31980</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="7"/>
-        <v>31752</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>400</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="5"/>
-        <v>163</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="7"/>
-        <v>25872</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="7"/>
-        <v>31680</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="7"/>
-        <v>32076</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>405</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="5"/>
-        <v>161</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="7"/>
-        <v>25872</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="7"/>
-        <v>32160</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="7"/>
-        <v>31512</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>410</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="5"/>
-        <v>159</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="7"/>
-        <v>26796</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="7"/>
-        <v>31824</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="7"/>
-        <v>31824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>415</v>
       </c>
-      <c r="B76">
+      <c r="B80">
         <f t="shared" si="5"/>
         <v>157</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="7"/>
+      <c r="C80">
+        <f t="shared" ref="C80:C117" si="7">(A80+1)*B80-1</f>
+        <v>65311</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:F117" si="8">ROUNDDOWN(($A80-D$8-D$9)/D$2,0)*ROUNDDOWN(($B80-D$10-D$11)/D$3,0)*D$5</f>
         <v>26796</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="7"/>
-        <v>32292</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="7"/>
-        <v>32136</v>
+      <c r="E80">
+        <f t="shared" si="8"/>
+        <v>32058</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>31518</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>420</v>
       </c>
-      <c r="B77">
+      <c r="B81">
         <f t="shared" si="5"/>
         <v>155</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <f t="shared" si="7"/>
-        <v>26796</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="7"/>
-        <v>31464</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="7"/>
+        <v>65254</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>27720</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="8"/>
+        <v>31692</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
         <v>31200</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>425</v>
       </c>
-      <c r="B78">
+      <c r="B82">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <f t="shared" si="7"/>
+        <v>65177</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
         <v>25200</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="7"/>
+      <c r="E82">
+        <f t="shared" si="8"/>
         <v>31920</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="7"/>
+      <c r="F82">
+        <f t="shared" si="8"/>
         <v>31800</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>430</v>
       </c>
-      <c r="B79">
+      <c r="B83">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <f t="shared" si="7"/>
+        <v>65511</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
         <v>25200</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="7"/>
+      <c r="E83">
+        <f t="shared" si="8"/>
         <v>31524</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="7"/>
-        <v>32100</v>
+      <c r="F83">
+        <f t="shared" si="8"/>
+        <v>31458</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>435</v>
       </c>
-      <c r="B80">
+      <c r="B84">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="C80">
+      <c r="C84">
         <f t="shared" si="7"/>
+        <v>65399</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
         <v>26040</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="7"/>
+      <c r="E84">
+        <f t="shared" si="8"/>
         <v>31968</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="7"/>
-        <v>31104</v>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>31752</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>440</v>
       </c>
-      <c r="B81">
+      <c r="B85">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="7"/>
-        <v>26040</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="7"/>
-        <v>31536</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="7"/>
-        <v>31392</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>445</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ref="B82:B113" si="8">ROUNDDOWN(65536/(A82+1),0)</f>
-        <v>146</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="7"/>
-        <v>26040</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="7"/>
-        <v>31968</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="7"/>
-        <v>31968</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>450</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="8"/>
-        <v>145</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="7"/>
-        <v>26880</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="7"/>
-        <v>31968</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="7"/>
-        <v>32256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>455</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="8"/>
-        <v>143</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="7"/>
-        <v>26880</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="7"/>
-        <v>31500</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="7"/>
-        <v>31188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>460</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="8"/>
-        <v>142</v>
-      </c>
       <c r="C85">
         <f t="shared" si="7"/>
-        <v>26880</v>
+        <v>65267</v>
       </c>
       <c r="D85">
-        <f t="shared" si="7"/>
-        <v>31920</v>
+        <f t="shared" si="8"/>
+        <v>26040</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
-        <v>31464</v>
+        <f t="shared" si="8"/>
+        <v>31320</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>31392</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="B86">
-        <f t="shared" si="8"/>
-        <v>140</v>
+        <f t="shared" ref="B86:B117" si="9">ROUNDDOWN(65536/(A86+1),0)</f>
+        <v>146</v>
       </c>
       <c r="C86">
         <f t="shared" si="7"/>
-        <v>24948</v>
+        <v>65115</v>
       </c>
       <c r="D86">
-        <f t="shared" si="7"/>
-        <v>31416</v>
+        <f t="shared" si="8"/>
+        <v>26040</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
-        <v>32016</v>
+        <f t="shared" si="8"/>
+        <v>31752</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
+        <v>31302</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B87">
-        <f t="shared" si="8"/>
-        <v>139</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="C87">
         <f t="shared" si="7"/>
-        <v>24948</v>
+        <v>65394</v>
       </c>
       <c r="D87">
-        <f t="shared" si="7"/>
-        <v>31824</v>
+        <f t="shared" si="8"/>
+        <v>26880</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
-        <v>32292</v>
+        <f t="shared" si="8"/>
+        <v>32184</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
+        <v>31584</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B88">
-        <f t="shared" si="8"/>
-        <v>137</v>
+        <f t="shared" si="9"/>
+        <v>143</v>
       </c>
       <c r="C88">
         <f t="shared" si="7"/>
-        <v>24948</v>
+        <v>65207</v>
       </c>
       <c r="D88">
-        <f t="shared" si="7"/>
-        <v>32232</v>
+        <f t="shared" si="8"/>
+        <v>26880</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
-        <v>31152</v>
+        <f t="shared" si="8"/>
+        <v>31500</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
+        <v>31188</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B89">
-        <f t="shared" si="8"/>
-        <v>136</v>
+        <f t="shared" si="9"/>
+        <v>142</v>
       </c>
       <c r="C89">
         <f t="shared" si="7"/>
-        <v>25704</v>
+        <v>65461</v>
       </c>
       <c r="D89">
-        <f t="shared" si="7"/>
-        <v>31284</v>
+        <f t="shared" si="8"/>
+        <v>26880</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
-        <v>31416</v>
+        <f t="shared" si="8"/>
+        <v>31920</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
+        <v>31464</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="B90">
-        <f t="shared" si="8"/>
-        <v>134</v>
+        <f t="shared" si="9"/>
+        <v>140</v>
       </c>
       <c r="C90">
         <f t="shared" si="7"/>
-        <v>25704</v>
+        <v>65239</v>
       </c>
       <c r="D90">
-        <f t="shared" si="7"/>
-        <v>31680</v>
+        <f t="shared" si="8"/>
+        <v>27720</v>
       </c>
       <c r="E90">
-        <f t="shared" si="7"/>
-        <v>31944</v>
+        <f t="shared" si="8"/>
+        <v>31416</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="8"/>
+        <v>31320</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B91">
-        <f t="shared" si="8"/>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>139</v>
       </c>
       <c r="C91">
         <f t="shared" si="7"/>
-        <v>25704</v>
+        <v>65468</v>
       </c>
       <c r="D91">
-        <f t="shared" si="7"/>
-        <v>32076</v>
+        <f t="shared" si="8"/>
+        <v>24948</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
-        <v>32208</v>
+        <f t="shared" si="8"/>
+        <v>31620</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>31590</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B92">
-        <f t="shared" si="8"/>
-        <v>132</v>
+        <f t="shared" si="9"/>
+        <v>137</v>
       </c>
       <c r="C92">
         <f t="shared" si="7"/>
-        <v>26460</v>
+        <v>65211</v>
       </c>
       <c r="D92">
-        <f t="shared" si="7"/>
-        <v>31488</v>
+        <f t="shared" si="8"/>
+        <v>24948</v>
       </c>
       <c r="E92">
-        <f t="shared" si="7"/>
-        <v>30996</v>
+        <f t="shared" si="8"/>
+        <v>32028</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="8"/>
+        <v>31152</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B93">
-        <f t="shared" si="8"/>
-        <v>130</v>
+        <f t="shared" si="9"/>
+        <v>136</v>
       </c>
       <c r="C93">
         <f t="shared" si="7"/>
-        <v>26460</v>
+        <v>65415</v>
       </c>
       <c r="D93">
-        <f t="shared" si="7"/>
-        <v>31872</v>
+        <f t="shared" si="8"/>
+        <v>25704</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
-        <v>31248</v>
+        <f t="shared" si="8"/>
+        <v>31482</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="8"/>
+        <v>31416</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B94">
-        <f t="shared" si="8"/>
-        <v>129</v>
+        <f t="shared" si="9"/>
+        <v>134</v>
       </c>
       <c r="C94">
         <f t="shared" si="7"/>
-        <v>27216</v>
+        <v>65123</v>
       </c>
       <c r="D94">
-        <f t="shared" si="7"/>
-        <v>32256</v>
+        <f t="shared" si="8"/>
+        <v>25704</v>
       </c>
       <c r="E94">
-        <f t="shared" si="7"/>
-        <v>31752</v>
+        <f t="shared" si="8"/>
+        <v>31680</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="8"/>
+        <v>31218</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B95">
-        <f t="shared" si="8"/>
-        <v>128</v>
+        <f t="shared" si="9"/>
+        <v>133</v>
       </c>
       <c r="C95">
         <f t="shared" si="7"/>
-        <v>27216</v>
+        <v>65302</v>
       </c>
       <c r="D95">
-        <f t="shared" si="7"/>
-        <v>31248</v>
+        <f t="shared" si="8"/>
+        <v>26460</v>
       </c>
       <c r="E95">
-        <f t="shared" si="7"/>
-        <v>32004</v>
+        <f t="shared" si="8"/>
+        <v>32076</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="8"/>
+        <v>31476</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B96">
-        <f t="shared" si="8"/>
-        <v>127</v>
+        <f t="shared" si="9"/>
+        <v>132</v>
       </c>
       <c r="C96">
         <f t="shared" si="7"/>
-        <v>27216</v>
+        <v>65471</v>
       </c>
       <c r="D96">
-        <f t="shared" si="7"/>
-        <v>31620</v>
+        <f t="shared" si="8"/>
+        <v>26460</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
-        <v>32256</v>
+        <f t="shared" si="8"/>
+        <v>31488</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>31734</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B97">
-        <f t="shared" si="8"/>
-        <v>125</v>
+        <f t="shared" si="9"/>
+        <v>130</v>
       </c>
       <c r="C97">
         <f t="shared" si="7"/>
-        <v>24864</v>
+        <v>65129</v>
       </c>
       <c r="D97">
-        <f t="shared" si="7"/>
-        <v>31992</v>
+        <f t="shared" si="8"/>
+        <v>26460</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
-        <v>30960</v>
+        <f t="shared" si="8"/>
+        <v>31680</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>31248</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B98">
-        <f t="shared" si="8"/>
-        <v>124</v>
+        <f t="shared" si="9"/>
+        <v>129</v>
       </c>
       <c r="C98">
         <f t="shared" si="7"/>
-        <v>24864</v>
+        <v>65273</v>
       </c>
       <c r="D98">
-        <f t="shared" si="7"/>
-        <v>31320</v>
+        <f t="shared" si="8"/>
+        <v>27216</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
-        <v>31440</v>
+        <f t="shared" si="8"/>
+        <v>32064</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="8"/>
+        <v>31752</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B99">
-        <f t="shared" si="8"/>
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>128</v>
       </c>
       <c r="C99">
         <f t="shared" si="7"/>
-        <v>24864</v>
+        <v>65407</v>
       </c>
       <c r="D99">
-        <f t="shared" si="7"/>
-        <v>31680</v>
+        <f t="shared" si="8"/>
+        <v>27216</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
-        <v>31680</v>
+        <f t="shared" si="8"/>
+        <v>31434</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="8"/>
+        <v>31242</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="B100">
-        <f t="shared" si="8"/>
-        <v>122</v>
+        <f t="shared" si="9"/>
+        <v>127</v>
       </c>
       <c r="C100">
         <f t="shared" si="7"/>
-        <v>25536</v>
+        <v>65531</v>
       </c>
       <c r="D100">
-        <f t="shared" si="7"/>
-        <v>32040</v>
+        <f t="shared" si="8"/>
+        <v>27216</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
-        <v>31920</v>
+        <f t="shared" si="8"/>
+        <v>31620</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="8"/>
+        <v>31488</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B101">
-        <f t="shared" si="8"/>
-        <v>121</v>
+        <f t="shared" si="9"/>
+        <v>125</v>
       </c>
       <c r="C101">
         <f t="shared" si="7"/>
-        <v>25536</v>
+        <v>65124</v>
       </c>
       <c r="D101">
-        <f t="shared" si="7"/>
-        <v>32040</v>
+        <f t="shared" si="8"/>
+        <v>24864</v>
       </c>
       <c r="E101">
-        <f t="shared" si="7"/>
-        <v>32160</v>
+        <f t="shared" si="8"/>
+        <v>31992</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="8"/>
+        <v>30960</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B102">
-        <f t="shared" si="8"/>
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>124</v>
       </c>
       <c r="C102">
         <f t="shared" si="7"/>
-        <v>25536</v>
+        <v>65223</v>
       </c>
       <c r="D102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>24864</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
         <v>31320</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="7"/>
-        <v>31008</v>
+      <c r="F102">
+        <f t="shared" si="8"/>
+        <v>31440</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="B103">
-        <f t="shared" si="8"/>
-        <v>118</v>
+        <f t="shared" si="9"/>
+        <v>123</v>
       </c>
       <c r="C103">
         <f t="shared" si="7"/>
-        <v>26208</v>
+        <v>65312</v>
       </c>
       <c r="D103">
-        <f t="shared" si="7"/>
-        <v>31668</v>
+        <f t="shared" si="8"/>
+        <v>24864</v>
       </c>
       <c r="E103">
-        <f t="shared" si="7"/>
-        <v>31236</v>
+        <f t="shared" si="8"/>
+        <v>31500</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="8"/>
+        <v>31680</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="B104">
-        <f t="shared" si="8"/>
-        <v>117</v>
+        <f t="shared" si="9"/>
+        <v>122</v>
       </c>
       <c r="C104">
         <f t="shared" si="7"/>
-        <v>26208</v>
+        <v>65391</v>
       </c>
       <c r="D104">
-        <f t="shared" si="7"/>
-        <v>32016</v>
+        <f t="shared" si="8"/>
+        <v>25536</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
-        <v>31464</v>
+        <f t="shared" si="8"/>
+        <v>31860</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="8"/>
+        <v>31122</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B105">
-        <f t="shared" si="8"/>
-        <v>116</v>
+        <f t="shared" si="9"/>
+        <v>121</v>
       </c>
       <c r="C105">
         <f t="shared" si="7"/>
-        <v>26208</v>
+        <v>65460</v>
       </c>
       <c r="D105">
-        <f t="shared" si="7"/>
-        <v>31248</v>
+        <f t="shared" si="8"/>
+        <v>25536</v>
       </c>
       <c r="E105">
-        <f t="shared" si="7"/>
-        <v>31692</v>
+        <f t="shared" si="8"/>
+        <v>32220</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="8"/>
+        <v>31356</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B106">
-        <f t="shared" si="8"/>
-        <v>115</v>
+        <f t="shared" si="9"/>
+        <v>120</v>
       </c>
       <c r="C106">
         <f t="shared" si="7"/>
-        <v>26880</v>
+        <v>65519</v>
       </c>
       <c r="D106">
-        <f t="shared" si="7"/>
-        <v>31584</v>
+        <f t="shared" si="8"/>
+        <v>25536</v>
       </c>
       <c r="E106">
-        <f t="shared" si="7"/>
-        <v>32148</v>
+        <f t="shared" si="8"/>
+        <v>31320</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="8"/>
+        <v>31824</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B107">
-        <f t="shared" si="8"/>
-        <v>114</v>
+        <f t="shared" si="9"/>
+        <v>118</v>
       </c>
       <c r="C107">
         <f t="shared" si="7"/>
-        <v>26880</v>
+        <v>65017</v>
       </c>
       <c r="D107">
-        <f t="shared" si="7"/>
-        <v>31584</v>
+        <f t="shared" si="8"/>
+        <v>26208</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
-        <v>30672</v>
+        <f t="shared" si="8"/>
+        <v>31668</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="8"/>
+        <v>31236</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B108">
-        <f t="shared" si="8"/>
-        <v>113</v>
+        <f t="shared" si="9"/>
+        <v>117</v>
       </c>
       <c r="C108">
         <f t="shared" si="7"/>
-        <v>27552</v>
+        <v>65051</v>
       </c>
       <c r="D108">
-        <f t="shared" si="7"/>
-        <v>31920</v>
+        <f t="shared" si="8"/>
+        <v>26208</v>
       </c>
       <c r="E108">
-        <f t="shared" si="7"/>
-        <v>30888</v>
+        <f t="shared" si="8"/>
+        <v>32016</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="8"/>
+        <v>31464</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B109">
-        <f t="shared" si="8"/>
-        <v>112</v>
+        <f t="shared" si="9"/>
+        <v>116</v>
       </c>
       <c r="C109">
         <f t="shared" si="7"/>
-        <v>24108</v>
+        <v>65075</v>
       </c>
       <c r="D109">
-        <f t="shared" si="7"/>
-        <v>31104</v>
+        <f t="shared" si="8"/>
+        <v>26880</v>
       </c>
       <c r="E109">
-        <f t="shared" si="7"/>
-        <v>31104</v>
+        <f t="shared" si="8"/>
+        <v>31080</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="8"/>
+        <v>30858</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B110">
-        <f t="shared" si="8"/>
-        <v>111</v>
+        <f t="shared" si="9"/>
+        <v>115</v>
       </c>
       <c r="C110">
         <f t="shared" si="7"/>
-        <v>24108</v>
+        <v>65089</v>
       </c>
       <c r="D110">
-        <f t="shared" si="7"/>
-        <v>31428</v>
+        <f t="shared" si="8"/>
+        <v>26880</v>
       </c>
       <c r="E110">
-        <f t="shared" si="7"/>
-        <v>31536</v>
+        <f t="shared" si="8"/>
+        <v>31416</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="8"/>
+        <v>31302</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B111">
-        <f t="shared" si="8"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>114</v>
       </c>
       <c r="C111">
         <f t="shared" si="7"/>
-        <v>24696</v>
+        <v>65093</v>
       </c>
       <c r="D111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
+        <v>26880</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="8"/>
         <v>31752</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="7"/>
-        <v>31752</v>
+      <c r="F111">
+        <f t="shared" si="8"/>
+        <v>31524</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B112">
-        <f t="shared" si="8"/>
-        <v>109</v>
+        <f t="shared" si="9"/>
+        <v>113</v>
       </c>
       <c r="C112">
         <f t="shared" si="7"/>
-        <v>24696</v>
+        <v>65087</v>
       </c>
       <c r="D112">
-        <f t="shared" si="7"/>
-        <v>32076</v>
+        <f t="shared" si="8"/>
+        <v>27552</v>
       </c>
       <c r="E112">
-        <f t="shared" si="7"/>
-        <v>31968</v>
+        <f t="shared" si="8"/>
+        <v>31920</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="8"/>
+        <v>30888</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B113">
-        <f t="shared" si="8"/>
-        <v>109</v>
+        <f t="shared" si="9"/>
+        <v>112</v>
       </c>
       <c r="C113">
         <f t="shared" si="7"/>
+        <v>65071</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="8"/>
+        <v>27552</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="8"/>
+        <v>31104</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="8"/>
+        <v>31104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>585</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="7"/>
+        <v>65045</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="8"/>
+        <v>24108</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="8"/>
+        <v>31428</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="8"/>
+        <v>31536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>590</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="7"/>
+        <v>65009</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="8"/>
         <v>24696</v>
       </c>
-      <c r="D113">
+      <c r="E115">
+        <f t="shared" si="8"/>
+        <v>31590</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="8"/>
+        <v>30870</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>595</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="C116">
         <f t="shared" si="7"/>
-        <v>32076</v>
-      </c>
-      <c r="E113">
+        <v>64963</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>24696</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="8"/>
+        <v>31914</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="8"/>
+        <v>31080</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>600</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="C117">
         <f t="shared" si="7"/>
-        <v>32184</v>
+        <v>65508</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>24696</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="8"/>
+        <v>32238</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="8"/>
+        <v>31290</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C13:E113">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:E11">
+  <conditionalFormatting sqref="D15:F117">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
